--- a/data2019/singapore2019.xlsx
+++ b/data2019/singapore2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Year 5\COMP 4801 FYP\codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Year 5\COMP 4801 FYP\codes\data2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BE9A9E-94C9-4709-BFEB-6315182B9BB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1065423-F69E-4A3F-A88B-D64E45C137CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{25909279-3FED-49C2-85F2-F1BD41911B2F}"/>
+    <workbookView xWindow="9600" yWindow="135" windowWidth="28800" windowHeight="15435" activeTab="8" xr2:uid="{25909279-3FED-49C2-85F2-F1BD41911B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="fastestlap" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="totallaptimes" sheetId="9" r:id="rId5"/>
     <sheet name="lapdelta" sheetId="10" r:id="rId6"/>
     <sheet name="lapsundercut" sheetId="11" r:id="rId7"/>
+    <sheet name="weather" sheetId="12" r:id="rId8"/>
+    <sheet name="altitude" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="120">
   <si>
     <t>Pos.</t>
   </si>
@@ -387,6 +389,42 @@
   <si>
     <t>delta_position</t>
   </si>
+  <si>
+    <t>tyre_before</t>
+  </si>
+  <si>
+    <t>tyre_after</t>
+  </si>
+  <si>
+    <t>Skycondition</t>
+  </si>
+  <si>
+    <t>Humid and Mostly Cloudy</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>85.56°F</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>11.61 mph</t>
+  </si>
+  <si>
+    <t>Wind bearing</t>
+  </si>
+  <si>
+    <t>139°</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
 </sst>
 </file>
 
@@ -431,11 +469,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9395,10 +9434,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18896F0-13FF-4F21-9D1E-CDC6EE342C8B}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:C57"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9410,9 +9449,11 @@
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -9434,8 +9475,14 @@
       <c r="G1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9457,8 +9504,14 @@
       <c r="G2">
         <v>30.756</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -9480,8 +9533,14 @@
       <c r="G3">
         <v>30.396999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -9503,8 +9562,14 @@
       <c r="G4">
         <v>29.384</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -9526,8 +9591,14 @@
       <c r="G5">
         <v>29.992000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -9549,8 +9620,14 @@
       <c r="G6">
         <v>29.456</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -9572,8 +9649,14 @@
       <c r="G7">
         <v>43.576000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -9595,8 +9678,14 @@
       <c r="G8">
         <v>32.481999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -9618,8 +9707,14 @@
       <c r="G9">
         <v>29.082000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -9641,8 +9736,14 @@
       <c r="G10">
         <v>29.167999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -9664,8 +9765,14 @@
       <c r="G11">
         <v>29.481999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -9687,8 +9794,14 @@
       <c r="G12">
         <v>39.188000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -9710,8 +9823,14 @@
       <c r="G13">
         <v>29.46</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -9733,8 +9852,14 @@
       <c r="G14">
         <v>29.402999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -9756,8 +9881,14 @@
       <c r="G15">
         <v>30.916</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -9779,8 +9910,14 @@
       <c r="G16">
         <v>28.606000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
@@ -9802,8 +9939,14 @@
       <c r="G17">
         <v>28.798999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
@@ -9825,8 +9968,14 @@
       <c r="G18">
         <v>34.710999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -9848,8 +9997,14 @@
       <c r="G19">
         <v>29.562999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27</v>
       </c>
@@ -9871,8 +10026,14 @@
       <c r="G20">
         <v>29.152000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>33</v>
       </c>
@@ -9894,8 +10055,14 @@
       <c r="G21">
         <v>28.846</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>44</v>
       </c>
@@ -9917,8 +10084,14 @@
       <c r="G22">
         <v>28.93</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>55</v>
       </c>
@@ -9940,8 +10113,14 @@
       <c r="G23" s="1">
         <v>8.0879629629629628E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>55</v>
       </c>
@@ -9963,8 +10142,14 @@
       <c r="G24">
         <v>30.623000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>63</v>
       </c>
@@ -9986,8 +10171,14 @@
       <c r="G25">
         <v>38.752000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>77</v>
       </c>
@@ -10009,8 +10200,14 @@
       <c r="G26">
         <v>29.234000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>88</v>
       </c>
@@ -10032,8 +10229,14 @@
       <c r="G27">
         <v>29.033000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>88</v>
       </c>
@@ -10055,8 +10258,14 @@
       <c r="G28">
         <v>30.321000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>99</v>
       </c>
@@ -10078,8 +10287,14 @@
       <c r="G29">
         <v>29.07</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>99</v>
       </c>
@@ -10100,6 +10315,12 @@
       </c>
       <c r="G30">
         <v>28.96</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -21053,7 +21274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E09AB0-82AA-4076-B70E-0E322976D8DE}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -21756,4 +21977,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157606A9-D527-4A5B-91AF-84148B872CF2}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4918EA7-046A-44C2-B928-2A91D6CED5CD}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1">
+        <v>5.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data2019/singapore2019.xlsx
+++ b/data2019/singapore2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Year 5\COMP 4801 FYP\codes\data2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1065423-F69E-4A3F-A88B-D64E45C137CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC21731F-E1CD-4A49-8C88-9F77DE1E74C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="135" windowWidth="28800" windowHeight="15435" activeTab="8" xr2:uid="{25909279-3FED-49C2-85F2-F1BD41911B2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="11" xr2:uid="{25909279-3FED-49C2-85F2-F1BD41911B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="fastestlap" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <sheet name="lapsundercut" sheetId="11" r:id="rId7"/>
     <sheet name="weather" sheetId="12" r:id="rId8"/>
     <sheet name="altitude" sheetId="13" r:id="rId9"/>
+    <sheet name="finalstanding" sheetId="14" r:id="rId10"/>
+    <sheet name="compoundchange" sheetId="15" r:id="rId11"/>
+    <sheet name="sc" sheetId="17" r:id="rId12"/>
+    <sheet name="raceclassification" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="162">
   <si>
     <t>Pos.</t>
   </si>
@@ -425,16 +429,144 @@
   <si>
     <t>delta</t>
   </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>initial_pos</t>
+  </si>
+  <si>
+    <t>final_pos</t>
+  </si>
+  <si>
+    <t>no_of_pits</t>
+  </si>
+  <si>
+    <t>tyre_grid</t>
+  </si>
+  <si>
+    <t>tyre_1</t>
+  </si>
+  <si>
+    <t>tyre_2</t>
+  </si>
+  <si>
+    <t>tyre_grid_distance</t>
+  </si>
+  <si>
+    <t>tyre_1_distance</t>
+  </si>
+  <si>
+    <t>tyre_2_distance</t>
+  </si>
+  <si>
+    <t>final_pos_gained</t>
+  </si>
+  <si>
+    <t>final_points</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>Nat</t>
+  </si>
+  <si>
+    <t>Laps</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Kph</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>total_time</t>
+  </si>
+  <si>
+    <t>sc_laps_travelled</t>
+  </si>
+  <si>
+    <t>sc_laps_remaining</t>
+  </si>
+  <si>
+    <t>sc_tyre_compound</t>
+  </si>
+  <si>
+    <t>before_pit_pos</t>
+  </si>
+  <si>
+    <t>sc_lap</t>
+  </si>
+  <si>
+    <t>sc_decision</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss.000"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss.000"/>
+    <numFmt numFmtId="167" formatCode="h\.mm\.ss.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,16 +580,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -465,18 +621,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1292,6 +1484,4785 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74DBC96-1105-4B16-8038-48CF81322E10}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>77</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>99</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>55</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>26</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>88</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21">
+        <v>63</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D2B3F6-EC24-4A03-8EB1-9B430408D848}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:X1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>MATCH(A2,lapchart!$B$2:$U$2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A2,finalstanding!B:B,0))</f>
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(pitstop!A:A, A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:E1))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:F1))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:E1)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:F1))),F2)</f>
+        <v>3</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>34</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">IFERROR(IF(D2=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H2,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A2=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H2),"")</f>
+        <v>27</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">IFERROR(IF(D2=1,0,IF(D2=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H2-I2,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A2=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H2-I2)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IFERROR((C2-B2)*-1,"")</f>
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M21" si="0">IF(C2=1,25,IF(C2=2,18,IF(C2=3,15,IF(C2=4,12,IF(C2=5,10,IF(C2=6,8,IF(C2=7,6,IF(C2=8,4,IF(C2=9,2,IF(C2=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <f>VLOOKUP(A2,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A2,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A2,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A2,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2769988425925922E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>MATCH(A3,lapchart!$B$2:$U$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A3,finalstanding!B:B,0))</f>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(pitstop!A:A, A3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:E2))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:F2))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:E2)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:F2))),F3)</f>
+        <v>3</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>20</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">IFERROR(IF(D3=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H3,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A3=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H3),"")</f>
+        <v>41</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">IFERROR(IF(D3=1,0,IF(D3=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H3-I3,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A3=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H3-I3)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L21" si="1">IFERROR((C3-B3)*-1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N3" s="9">
+        <f>VLOOKUP(A3,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A3,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A3,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A3,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2505046296296292E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>MATCH(A4,lapchart!$B$2:$U$2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A4,finalstanding!B:B,0))</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(pitstop!A:A, A4)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:E3))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:F3))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:E3)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:F3))),F4)</f>
+        <v>3</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>19</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">IFERROR(IF(D4=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H4,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A4=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H4),"")</f>
+        <v>42</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">IFERROR(IF(D4=1,0,IF(D4=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H4-I4,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A4=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H4-I4)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="N4" s="9">
+        <f>VLOOKUP(A4,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A4,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A4,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A4,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2334108796296296E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>MATCH(A5,lapchart!$B$2:$U$2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="C5" t="str">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A5,finalstanding!B:B,0))</f>
+        <v>DNF</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(pitstop!A:A, A5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:E4))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:F4))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:E4)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:F4))),F5)</f>
+        <v>3</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>15</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">IFERROR(IF(D5=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H5,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A5=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H5),"")</f>
+        <v>46</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">IFERROR(IF(D5=1,0,IF(D5=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H5-I5,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A5=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H5-I5)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <f>VLOOKUP(A5,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A5,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A5,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A5,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.6917951388888883E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f>MATCH(A6,lapchart!$B$2:$U$2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A6,finalstanding!B:B,0))</f>
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(pitstop!A:A, A6)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:E5))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:F5))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:E5)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:F5))),F6)</f>
+        <v>5</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>23</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">IFERROR(IF(D6=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H6,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A6=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H6),"")</f>
+        <v>12</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">IFERROR(IF(D6=1,0,IF(D6=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H6-I6,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A6=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H6-I6)),"")</f>
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <f>VLOOKUP(A6,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A6,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A6,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A6,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2744247685185179E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>MATCH(A7,lapchart!$B$2:$U$2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A7,finalstanding!B:B,0))</f>
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(pitstop!A:A, A7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:E6))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:F6))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:E6)))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:F6))),F7)</f>
+        <v>4</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>32</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">IFERROR(IF(D7=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H7,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A7=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H7),"")</f>
+        <v>29</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">IFERROR(IF(D7=1,0,IF(D7=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H7-I7,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A7=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H7-I7)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="9">
+        <f>VLOOKUP(A7,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A7,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A7,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A7,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2514050925925925E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <f>MATCH(A8,lapchart!$B$2:$U$2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="C8" t="str">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A8,finalstanding!B:B,0))</f>
+        <v>DNF</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(pitstop!A:A, A8)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" ref="E8">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:E7))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:F7))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:E7)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:F7))),F8)</f>
+        <v>3</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>13</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">IFERROR(IF(D8=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H8,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A8=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H8),"")</f>
+        <v>48</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">IFERROR(IF(D8=1,0,IF(D8=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H8-I8,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A8=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H8-I8)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <f>VLOOKUP(A8,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A8,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A8,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A8,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.5926261574074071E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f>MATCH(A9,lapchart!$B$2:$U$2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A9,finalstanding!B:B,0))</f>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(pitstop!A:A, A9)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" cm="1">
+        <f t="array" ref="E9">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:E8))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:F8))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:E8)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:F8))),F9)</f>
+        <v>3</v>
+      </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>20</v>
+      </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">IFERROR(IF(D9=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H9,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A9=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H9),"")</f>
+        <v>41</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">IFERROR(IF(D9=1,0,IF(D9=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H9-I9,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A9=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H9-I9)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N9" s="9">
+        <f>VLOOKUP(A9,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A9,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A9,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A9,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2364675925925931E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <f>MATCH(A10,lapchart!$B$2:$U$2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A10,finalstanding!B:B,0))</f>
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(pitstop!A:A, A10)</f>
+        <v>3</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:E9))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:F9))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:E9)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:F9))),F10)</f>
+        <v>5</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>31</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">IFERROR(IF(D10=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H10,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A10=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H10),"")</f>
+        <v>10</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">IFERROR(IF(D10=1,0,IF(D10=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H10-I10,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A10=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H10-I10)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <f>VLOOKUP(A10,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A10,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A10,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A10,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2755624999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <f>MATCH(A11,lapchart!$B$2:$U$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A11,finalstanding!B:B,0))</f>
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIF(pitstop!A:A, A11)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:E10))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:F10))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:E10)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:F10))),F11)</f>
+        <v>5</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>18</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">IFERROR(IF(D11=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H11,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A11=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H11),"")</f>
+        <v>38</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">IFERROR(IF(D11=1,0,IF(D11=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H11-I11,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A11=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H11-I11)),"")</f>
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <f>VLOOKUP(A11,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A11,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A11,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A11,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.3335520833333329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <f>MATCH(A12,lapchart!$B$2:$U$2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A12,finalstanding!B:B,0))</f>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIF(pitstop!A:A, A12)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:E11))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:F11))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:E11)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:F11))),F12)</f>
+        <v>3</v>
+      </c>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>20</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">IFERROR(IF(D12=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H12,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A12=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H12),"")</f>
+        <v>41</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">IFERROR(IF(D12=1,0,IF(D12=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H12-I12,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A12=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H12-I12)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="9">
+        <f>VLOOKUP(A12,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A12,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A12,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A12,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2469097222222218E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <f>MATCH(A13,lapchart!$B$2:$U$2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A13,finalstanding!B:B,0))</f>
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF(pitstop!A:A, A13)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" cm="1">
+        <f t="array" ref="E13">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:E12))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:F12))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:E12)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:F12))),F13)</f>
+        <v>5</v>
+      </c>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>12</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13">IFERROR(IF(D13=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H13,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A13=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H13),"")</f>
+        <v>24</v>
+      </c>
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">IFERROR(IF(D13=1,0,IF(D13=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H13-I13,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A13=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H13-I13)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <f>VLOOKUP(A13,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A13,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A13,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A13,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2775983796296304E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <f>MATCH(A14,lapchart!$B$2:$U$2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A14,finalstanding!B:B,0))</f>
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF(pitstop!A:A, A14)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" cm="1">
+        <f t="array" ref="E14">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:E13))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:F13))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:E13)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:F13))),F14)</f>
+        <v>4</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14">IFERROR(IF(D14=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H14,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A14=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H14),"")</f>
+        <v>35</v>
+      </c>
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">IFERROR(IF(D14=1,0,IF(D14=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H14-I14,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A14=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H14-I14)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N14" s="9">
+        <f>VLOOKUP(A14,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A14,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A14,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A14,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2527604166666671E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <f>MATCH(A15,lapchart!$B$2:$U$2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A15,finalstanding!B:B,0))</f>
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF(pitstop!A:A, A15)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" cm="1">
+        <f t="array" ref="E15">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:E14))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:F14))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:E14)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:F14))),F15)</f>
+        <v>3</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>19</v>
+      </c>
+      <c r="I15" cm="1">
+        <f t="array" ref="I15">IFERROR(IF(D15=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H15,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A15=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H15),"")</f>
+        <v>42</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">IFERROR(IF(D15=1,0,IF(D15=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H15-I15,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A15=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H15-I15)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N15" s="9">
+        <f>VLOOKUP(A15,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A15,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A15,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A15,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2378333333333331E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <f>MATCH(A16,lapchart!$B$2:$U$2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A16,finalstanding!B:B,0))</f>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF(pitstop!A:A, A16)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" cm="1">
+        <f t="array" ref="E16">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:E15))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:F15))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:E15)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:F15))),F16)</f>
+        <v>3</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>26</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" ref="I16">IFERROR(IF(D16=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H16,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A16=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H16),"")</f>
+        <v>35</v>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">IFERROR(IF(D16=1,0,IF(D16=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H16-I16,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A16=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H16-I16)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N16" s="9">
+        <f>VLOOKUP(A16,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A16,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A16,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A16,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2387442129629632E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <f>MATCH(A17,lapchart!$B$2:$U$2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A17,finalstanding!B:B,0))</f>
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF(pitstop!A:A, A17)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" cm="1">
+        <f t="array" ref="E17">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:E16))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:F16))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:E16)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:F16))),F17)</f>
+        <v>4</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" ref="I17">IFERROR(IF(D17=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H17,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A17=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H17),"")</f>
+        <v>34</v>
+      </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">IFERROR(IF(D17=1,0,IF(D17=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H17-I17,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A17=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H17-I17)),"")</f>
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <f>VLOOKUP(A17,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A17,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A17,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A17,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.275047453703703E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <f>MATCH(A18,lapchart!$B$2:$U$2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="C18" t="str">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A18,finalstanding!B:B,0))</f>
+        <v>DNF</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF(pitstop!A:A, A18)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" cm="1">
+        <f t="array" ref="E18">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:E17))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:F17))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:E17)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:F17))),F18)</f>
+        <v>3</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I18" cm="1">
+        <f t="array" ref="I18">IFERROR(IF(D18=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H18,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A18=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H18),"")</f>
+        <v>60</v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">IFERROR(IF(D18=1,0,IF(D18=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H18-I18,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A18=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H18-I18)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <f>VLOOKUP(A18,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A18,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A18,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A18,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>4.3704884259259259E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>77</v>
+      </c>
+      <c r="B19">
+        <f>MATCH(A19,lapchart!$B$2:$U$2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A19,finalstanding!B:B,0))</f>
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIF(pitstop!A:A, A19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" ref="E19">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:E18))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:F18))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:E18)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:F18))),F19)</f>
+        <v>3</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>22</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" ref="I19">IFERROR(IF(D19=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H19,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A19=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H19),"")</f>
+        <v>39</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">IFERROR(IF(D19=1,0,IF(D19=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H19-I19,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A19=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H19-I19)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="9">
+        <f>VLOOKUP(A19,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A19,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A19,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A19,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2404930555555547E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <f>MATCH(A20,lapchart!$B$2:$U$2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A20,finalstanding!B:B,0))</f>
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIF(pitstop!A:A, A20)</f>
+        <v>2</v>
+      </c>
+      <c r="E20" cm="1">
+        <f t="array" ref="E20">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:E19))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:F19))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:E19)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:F19))),F20)</f>
+        <v>4</v>
+      </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>21</v>
+      </c>
+      <c r="I20" cm="1">
+        <f t="array" ref="I20">IFERROR(IF(D20=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H20,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A20=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H20),"")</f>
+        <v>23</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">IFERROR(IF(D20=1,0,IF(D20=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H20-I20,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A20=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H20-I20)),"")</f>
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <f>VLOOKUP(A20,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A20,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A20,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A20,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2878368055555554E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <f>MATCH(A21,lapchart!$B$2:$U$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A21,finalstanding!B:B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIF(pitstop!A:A, A21)</f>
+        <v>2</v>
+      </c>
+      <c r="E21" cm="1">
+        <f t="array" ref="E21">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:E20))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:F20))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:E20)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:F20))),F21)</f>
+        <v>5</v>
+      </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>34</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21">IFERROR(IF(D21=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H21,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A21=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H21),"")</f>
+        <v>2</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">IFERROR(IF(D21=1,0,IF(D21=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H21-I21,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A21=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H21-I21)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="9">
+        <f>VLOOKUP(A21,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A21,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A21,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A21,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2656504629629632E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2585E0-FD5B-4345-A0F1-A2CCB20C147F}">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>MATCH(A2,lapchart!$B$2:$U$2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A2,finalstanding!B:B,0))</f>
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(pitstop!A:A, A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:E1))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:F1))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:E1)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:F1))),F2)</f>
+        <v>3</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>34</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">IFERROR(IF(D2=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H2,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A2=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H2),"")</f>
+        <v>27</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">IFERROR(IF(D2=1,0,IF(D2=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H2-I2,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A2=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H2-I2)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IFERROR((C2-B2)*-1,"")</f>
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M17" si="0">IF(C2=1,25,IF(C2=2,18,IF(C2=3,15,IF(C2=4,12,IF(C2=5,10,IF(C2=6,8,IF(C2=7,6,IF(C2=8,4,IF(C2=9,2,IF(C2=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <f>VLOOKUP(A2,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A2,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A2,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A2,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2769988425925922E-2</v>
+      </c>
+      <c r="O2">
+        <v>36</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q21" si="1">IF(H2=O2,O2,IF(H2+I2=O2,I2,IF(H2&gt;O2,H2-O2,IF(H2+I2&gt;O2,O2-H2,IF(H2+I2+J2&gt;O2,O2-H2-I2,"")))))</f>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <f>COUNTA(lapchart!A:A)-2-O2</f>
+        <v>25</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S21" si="2">IF(H2&gt;=O2,E2,IF(H2+I2&gt;=O2,F2,IF(H2+I2+J2&gt;=O2,G2)))</f>
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A2,INDIRECT("lapchart!B"&amp;O2+2&amp;":U" &amp; O2+2),0)),"")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>MATCH(A3,lapchart!$B$2:$U$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A3,finalstanding!B:B,0))</f>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(pitstop!A:A, A3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:E2))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:F2))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:E2)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:F2))),F3)</f>
+        <v>3</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>20</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">IFERROR(IF(D3=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H3,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A3=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H3),"")</f>
+        <v>41</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">IFERROR(IF(D3=1,0,IF(D3=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H3-I3,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A3=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H3-I3)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L17" si="3">IFERROR((C3-B3)*-1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N3" s="9">
+        <f>VLOOKUP(A3,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A3,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A3,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A3,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2505046296296292E-2</v>
+      </c>
+      <c r="O3">
+        <v>36</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <f>COUNTA(lapchart!A:A)-2-O3</f>
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A3,INDIRECT("lapchart!B"&amp;O3+2&amp;":U" &amp; O3+2),0)),"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>MATCH(A4,lapchart!$B$2:$U$2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A4,finalstanding!B:B,0))</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(pitstop!A:A, A4)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:E3))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:F3))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:E3)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:F3))),F4)</f>
+        <v>3</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>19</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">IFERROR(IF(D4=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H4,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A4=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H4),"")</f>
+        <v>42</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">IFERROR(IF(D4=1,0,IF(D4=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H4-I4,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A4=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H4-I4)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="N4" s="9">
+        <f>VLOOKUP(A4,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A4,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A4,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A4,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2334108796296296E-2</v>
+      </c>
+      <c r="O4">
+        <v>36</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <f>COUNTA(lapchart!A:A)-2-O4</f>
+        <v>25</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A4,INDIRECT("lapchart!B"&amp;O4+2&amp;":U" &amp; O4+2),0)),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <f>MATCH(A5,lapchart!$B$2:$U$2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A5,finalstanding!B:B,0))</f>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(pitstop!A:A, A5)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:E4))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:F4))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:E4)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:F4))),F5)</f>
+        <v>5</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>23</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">IFERROR(IF(D5=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H5,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A5=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H5),"")</f>
+        <v>12</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">IFERROR(IF(D5=1,0,IF(D5=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H5-I5,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A5=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H5-I5)),"")</f>
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <f>VLOOKUP(A5,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A5,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A5,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A5,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2744247685185179E-2</v>
+      </c>
+      <c r="O5">
+        <v>36</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f>COUNTA(lapchart!A:A)-2-O5</f>
+        <v>25</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A5,INDIRECT("lapchart!B"&amp;O5+2&amp;":U" &amp; O5+2),0)),"")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f>MATCH(A6,lapchart!$B$2:$U$2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A6,finalstanding!B:B,0))</f>
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(pitstop!A:A, A6)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:E5))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:F5))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:E5)))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:F5))),F6)</f>
+        <v>4</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>32</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">IFERROR(IF(D6=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H6,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A6=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H6),"")</f>
+        <v>29</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">IFERROR(IF(D6=1,0,IF(D6=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H6-I6,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A6=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H6-I6)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="9">
+        <f>VLOOKUP(A6,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A6,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A6,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A6,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2514050925925925E-2</v>
+      </c>
+      <c r="O6">
+        <v>36</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <f>COUNTA(lapchart!A:A)-2-O6</f>
+        <v>25</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A6,INDIRECT("lapchart!B"&amp;O6+2&amp;":U" &amp; O6+2),0)),"")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <f>MATCH(A7,lapchart!$B$2:$U$2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A7,finalstanding!B:B,0))</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(pitstop!A:A, A7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:E6))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:F6))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:E6)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:F6))),F7)</f>
+        <v>3</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>20</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">IFERROR(IF(D7=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H7,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A7=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H7),"")</f>
+        <v>41</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">IFERROR(IF(D7=1,0,IF(D7=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H7-I7,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A7=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H7-I7)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N7" s="9">
+        <f>VLOOKUP(A7,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A7,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A7,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A7,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2364675925925931E-2</v>
+      </c>
+      <c r="O7">
+        <v>36</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R7">
+        <f>COUNTA(lapchart!A:A)-2-O7</f>
+        <v>25</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A7,INDIRECT("lapchart!B"&amp;O7+2&amp;":U" &amp; O7+2),0)),"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <f>MATCH(A8,lapchart!$B$2:$U$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A8,finalstanding!B:B,0))</f>
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(pitstop!A:A, A8)</f>
+        <v>2</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" ref="E8">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:E7))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:F7))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:E7)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:F7))),F8)</f>
+        <v>5</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>18</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">IFERROR(IF(D8=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H8,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A8=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H8),"")</f>
+        <v>38</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">IFERROR(IF(D8=1,0,IF(D8=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H8-I8,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A8=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H8-I8)),"")</f>
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <f>VLOOKUP(A8,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A8,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A8,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A8,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.3335520833333329E-2</v>
+      </c>
+      <c r="O8">
+        <v>36</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="R8">
+        <f>COUNTA(lapchart!A:A)-2-O8</f>
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A8,INDIRECT("lapchart!B"&amp;O8+2&amp;":U" &amp; O8+2),0)),"")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <f>MATCH(A9,lapchart!$B$2:$U$2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A9,finalstanding!B:B,0))</f>
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(pitstop!A:A, A9)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" cm="1">
+        <f t="array" ref="E9">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:E8))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:F8))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:E8)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:F8))),F9)</f>
+        <v>3</v>
+      </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>20</v>
+      </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">IFERROR(IF(D9=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H9,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A9=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H9),"")</f>
+        <v>41</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">IFERROR(IF(D9=1,0,IF(D9=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H9-I9,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A9=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H9-I9)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="9">
+        <f>VLOOKUP(A9,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A9,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A9,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A9,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2469097222222218E-2</v>
+      </c>
+      <c r="O9">
+        <v>36</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <f>COUNTA(lapchart!A:A)-2-O9</f>
+        <v>25</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A9,INDIRECT("lapchart!B"&amp;O9+2&amp;":U" &amp; O9+2),0)),"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <f>MATCH(A10,lapchart!$B$2:$U$2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A10,finalstanding!B:B,0))</f>
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(pitstop!A:A, A10)</f>
+        <v>2</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:E9))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:F9))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:E9)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:F9))),F10)</f>
+        <v>5</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>12</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">IFERROR(IF(D10=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H10,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A10=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H10),"")</f>
+        <v>24</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">IFERROR(IF(D10=1,0,IF(D10=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H10-I10,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A10=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H10-I10)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <f>VLOOKUP(A10,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A10,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A10,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A10,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2775983796296304E-2</v>
+      </c>
+      <c r="O10">
+        <v>36</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <f>COUNTA(lapchart!A:A)-2-O10</f>
+        <v>25</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A10,INDIRECT("lapchart!B"&amp;O10+2&amp;":U" &amp; O10+2),0)),"")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <f>MATCH(A11,lapchart!$B$2:$U$2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A11,finalstanding!B:B,0))</f>
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIF(pitstop!A:A, A11)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:E10))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:F10))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:E10)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:F10))),F11)</f>
+        <v>4</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">IFERROR(IF(D11=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H11,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A11=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H11),"")</f>
+        <v>35</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">IFERROR(IF(D11=1,0,IF(D11=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H11-I11,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A11=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H11-I11)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N11" s="9">
+        <f>VLOOKUP(A11,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A11,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A11,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A11,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2527604166666671E-2</v>
+      </c>
+      <c r="O11">
+        <v>36</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="R11">
+        <f>COUNTA(lapchart!A:A)-2-O11</f>
+        <v>25</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A11,INDIRECT("lapchart!B"&amp;O11+2&amp;":U" &amp; O11+2),0)),"")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f>MATCH(A12,lapchart!$B$2:$U$2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A12,finalstanding!B:B,0))</f>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIF(pitstop!A:A, A12)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:E11))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:F11))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:E11)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:F11))),F12)</f>
+        <v>3</v>
+      </c>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>19</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">IFERROR(IF(D12=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H12,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A12=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H12),"")</f>
+        <v>42</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">IFERROR(IF(D12=1,0,IF(D12=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H12-I12,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A12=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H12-I12)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N12" s="9">
+        <f>VLOOKUP(A12,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A12,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A12,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A12,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2378333333333331E-2</v>
+      </c>
+      <c r="O12">
+        <v>36</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="R12">
+        <f>COUNTA(lapchart!A:A)-2-O12</f>
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A12,INDIRECT("lapchart!B"&amp;O12+2&amp;":U" &amp; O12+2),0)),"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <f>MATCH(A13,lapchart!$B$2:$U$2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A13,finalstanding!B:B,0))</f>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF(pitstop!A:A, A13)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" cm="1">
+        <f t="array" ref="E13">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:E12))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:F12))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:E12)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:F12))),F13)</f>
+        <v>3</v>
+      </c>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>26</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13">IFERROR(IF(D13=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H13,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A13=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H13),"")</f>
+        <v>35</v>
+      </c>
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">IFERROR(IF(D13=1,0,IF(D13=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H13-I13,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A13=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H13-I13)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N13" s="9">
+        <f>VLOOKUP(A13,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A13,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A13,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A13,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2387442129629632E-2</v>
+      </c>
+      <c r="O13">
+        <v>36</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <f>COUNTA(lapchart!A:A)-2-O13</f>
+        <v>25</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A13,INDIRECT("lapchart!B"&amp;O13+2&amp;":U" &amp; O13+2),0)),"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <f>MATCH(A14,lapchart!$B$2:$U$2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A14,finalstanding!B:B,0))</f>
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF(pitstop!A:A, A14)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" cm="1">
+        <f t="array" ref="E14">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:E13))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:F13))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:E13)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:F13))),F14)</f>
+        <v>4</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14">IFERROR(IF(D14=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H14,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A14=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H14),"")</f>
+        <v>34</v>
+      </c>
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">IFERROR(IF(D14=1,0,IF(D14=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H14-I14,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A14=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H14-I14)),"")</f>
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <f>VLOOKUP(A14,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A14,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A14,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A14,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.275047453703703E-2</v>
+      </c>
+      <c r="O14">
+        <v>36</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f>COUNTA(lapchart!A:A)-2-O14</f>
+        <v>25</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A14,INDIRECT("lapchart!B"&amp;O14+2&amp;":U" &amp; O14+2),0)),"")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>77</v>
+      </c>
+      <c r="B15">
+        <f>MATCH(A15,lapchart!$B$2:$U$2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A15,finalstanding!B:B,0))</f>
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF(pitstop!A:A, A15)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" cm="1">
+        <f t="array" ref="E15">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:E14))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:F14))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:E14)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:F14))),F15)</f>
+        <v>3</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>22</v>
+      </c>
+      <c r="I15" cm="1">
+        <f t="array" ref="I15">IFERROR(IF(D15=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H15,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A15=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H15),"")</f>
+        <v>39</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">IFERROR(IF(D15=1,0,IF(D15=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H15-I15,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A15=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H15-I15)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N15" s="9">
+        <f>VLOOKUP(A15,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A15,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A15,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A15,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2404930555555547E-2</v>
+      </c>
+      <c r="O15">
+        <v>36</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <f>COUNTA(lapchart!A:A)-2-O15</f>
+        <v>25</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A15,INDIRECT("lapchart!B"&amp;O15+2&amp;":U" &amp; O15+2),0)),"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>88</v>
+      </c>
+      <c r="B16">
+        <f>MATCH(A16,lapchart!$B$2:$U$2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A16,finalstanding!B:B,0))</f>
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF(pitstop!A:A, A16)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" cm="1">
+        <f t="array" ref="E16">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:E15))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:F15))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:E15)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:F15))),F16)</f>
+        <v>4</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>21</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" ref="I16">IFERROR(IF(D16=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H16,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A16=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H16),"")</f>
+        <v>23</v>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">IFERROR(IF(D16=1,0,IF(D16=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H16-I16,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A16=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H16-I16)),"")</f>
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <f>VLOOKUP(A16,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A16,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A16,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A16,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2878368055555554E-2</v>
+      </c>
+      <c r="O16">
+        <v>36</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <f>COUNTA(lapchart!A:A)-2-O16</f>
+        <v>25</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A16,INDIRECT("lapchart!B"&amp;O16+2&amp;":U" &amp; O16+2),0)),"")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <f>MATCH(A17,lapchart!$B$2:$U$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A17,finalstanding!B:B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF(pitstop!A:A, A17)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" cm="1">
+        <f t="array" ref="E17">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:E16))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:F16))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:E16)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:F16))),F17)</f>
+        <v>5</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>34</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" ref="I17">IFERROR(IF(D17=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H17,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A17=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H17),"")</f>
+        <v>2</v>
+      </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">IFERROR(IF(D17=1,0,IF(D17=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H17-I17,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A17=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H17-I17)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="9">
+        <f>VLOOKUP(A17,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A17,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A17,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A17,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2656504629629632E-2</v>
+      </c>
+      <c r="O17">
+        <v>36</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f>COUNTA(lapchart!A:A)-2-O17</f>
+        <v>25</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A17,INDIRECT("lapchart!B"&amp;O17+2&amp;":U" &amp; O17+2),0)),"")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <f>MATCH(A18,lapchart!$B$2:$U$2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A18,finalstanding!B:B,0))</f>
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF(pitstop!A:A, A18)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" cm="1">
+        <f t="array" ref="E18">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:E17))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:F17))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:E17)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:F17))),F18)</f>
+        <v>3</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>34</v>
+      </c>
+      <c r="I18" cm="1">
+        <f t="array" ref="I18">IFERROR(IF(D18=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H18,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A18=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H18),"")</f>
+        <v>27</v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">IFERROR(IF(D18=1,0,IF(D18=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H18-I18,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A18=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H18-I18)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>IFERROR((C18-B18)*-1,"")</f>
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M33" si="4">IF(C18=1,25,IF(C18=2,18,IF(C18=3,15,IF(C18=4,12,IF(C18=5,10,IF(C18=6,8,IF(C18=7,6,IF(C18=8,4,IF(C18=9,2,IF(C18=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <f>VLOOKUP(A18,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A18,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A18,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A18,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2769988425925922E-2</v>
+      </c>
+      <c r="O18">
+        <v>44</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <f>COUNTA(lapchart!A:A)-2-O18</f>
+        <v>17</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A18,INDIRECT("lapchart!B"&amp;O18+2&amp;":U" &amp; O18+2),0)),"")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <f>MATCH(A19,lapchart!$B$2:$U$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A19,finalstanding!B:B,0))</f>
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIF(pitstop!A:A, A19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" ref="E19">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:E18))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:F18))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:E18)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:F18))),F19)</f>
+        <v>3</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>20</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" ref="I19">IFERROR(IF(D19=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H19,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A19=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H19),"")</f>
+        <v>41</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">IFERROR(IF(D19=1,0,IF(D19=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H19-I19,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A19=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H19-I19)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L33" si="5">IFERROR((C19-B19)*-1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N19" s="9">
+        <f>VLOOKUP(A19,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A19,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A19,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A19,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2505046296296292E-2</v>
+      </c>
+      <c r="O19">
+        <v>44</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R19">
+        <f>COUNTA(lapchart!A:A)-2-O19</f>
+        <v>17</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A19,INDIRECT("lapchart!B"&amp;O19+2&amp;":U" &amp; O19+2),0)),"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <f>MATCH(A20,lapchart!$B$2:$U$2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A20,finalstanding!B:B,0))</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIF(pitstop!A:A, A20)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" cm="1">
+        <f t="array" ref="E20">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:E19))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:F19))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:E19)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:F19))),F20)</f>
+        <v>3</v>
+      </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>19</v>
+      </c>
+      <c r="I20" cm="1">
+        <f t="array" ref="I20">IFERROR(IF(D20=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H20,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A20=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H20),"")</f>
+        <v>42</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">IFERROR(IF(D20=1,0,IF(D20=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H20-I20,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A20=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H20-I20)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="N20" s="9">
+        <f>VLOOKUP(A20,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A20,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A20,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A20,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2334108796296296E-2</v>
+      </c>
+      <c r="O20">
+        <v>44</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R20">
+        <f>COUNTA(lapchart!A:A)-2-O20</f>
+        <v>17</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A20,INDIRECT("lapchart!B"&amp;O20+2&amp;":U" &amp; O20+2),0)),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <f>MATCH(A21,lapchart!$B$2:$U$2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A21,finalstanding!B:B,0))</f>
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIF(pitstop!A:A, A21)</f>
+        <v>2</v>
+      </c>
+      <c r="E21" cm="1">
+        <f t="array" ref="E21">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:E20))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:F20))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:E20)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:F20))),F21)</f>
+        <v>5</v>
+      </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>23</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21">IFERROR(IF(D21=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H21,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A21=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H21),"")</f>
+        <v>12</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">IFERROR(IF(D21=1,0,IF(D21=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H21-I21,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A21=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H21-I21)),"")</f>
+        <v>26</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <f>VLOOKUP(A21,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A21,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A21,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A21,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2744247685185179E-2</v>
+      </c>
+      <c r="O21">
+        <v>44</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R21">
+        <f>COUNTA(lapchart!A:A)-2-O21</f>
+        <v>17</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A21,INDIRECT("lapchart!B"&amp;O21+2&amp;":U" &amp; O21+2),0)),"")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f>MATCH(A22,lapchart!$B$2:$U$2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A22,finalstanding!B:B,0))</f>
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIF(pitstop!A:A, A22)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" cm="1">
+        <f t="array" ref="E22">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A22,ROW(pitstop!A:A),""),COLUMNS($E$1:E21))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A22,ROW(pitstop!A:A),""),COLUMNS($E$1:F21))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A22,ROW(pitstop!A:A),""),COLUMNS($E$1:E21)))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A22,ROW(pitstop!A:A),""),COLUMNS($E$1:F21))),F22)</f>
+        <v>4</v>
+      </c>
+      <c r="H22" cm="1">
+        <f t="array" ref="H22">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A22,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>32</v>
+      </c>
+      <c r="I22" cm="1">
+        <f t="array" ref="I22">IFERROR(IF(D22=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H22,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A22=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H22),"")</f>
+        <v>29</v>
+      </c>
+      <c r="J22" cm="1">
+        <f t="array" ref="J22">IFERROR(IF(D22=1,0,IF(D22=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H22-I22,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A22=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H22-I22)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N22" s="9">
+        <f>VLOOKUP(A22,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A22,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A22,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A22,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2514050925925925E-2</v>
+      </c>
+      <c r="O22">
+        <v>44</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22:Q33" si="6">IF(H22=O22,O22,IF(H22+I22=O22,I22,IF(H22&gt;O22,H22-O22,IF(H22+I22&gt;O22,O22-H22,IF(H22+I22+J22&gt;O22,O22-H22-I22,"")))))</f>
+        <v>12</v>
+      </c>
+      <c r="R22">
+        <f>COUNTA(lapchart!A:A)-2-O22</f>
+        <v>17</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22:S33" si="7">IF(H22&gt;=O22,E22,IF(H22+I22&gt;=O22,F22,IF(H22+I22+J22&gt;=O22,G22)))</f>
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A22,INDIRECT("lapchart!B"&amp;O22+2&amp;":U" &amp; O22+2),0)),"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <f>MATCH(A23,lapchart!$B$2:$U$2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A23,finalstanding!B:B,0))</f>
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f>COUNTIF(pitstop!A:A, A23)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" cm="1">
+        <f t="array" ref="E23">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A23,ROW(pitstop!A:A),""),COLUMNS($E$1:E22))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A23,ROW(pitstop!A:A),""),COLUMNS($E$1:F22))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A23,ROW(pitstop!A:A),""),COLUMNS($E$1:E22)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A23,ROW(pitstop!A:A),""),COLUMNS($E$1:F22))),F23)</f>
+        <v>3</v>
+      </c>
+      <c r="H23" cm="1">
+        <f t="array" ref="H23">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A23,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>20</v>
+      </c>
+      <c r="I23" cm="1">
+        <f t="array" ref="I23">IFERROR(IF(D23=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H23,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A23=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H23),"")</f>
+        <v>41</v>
+      </c>
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">IFERROR(IF(D23=1,0,IF(D23=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H23-I23,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A23=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H23-I23)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="N23" s="9">
+        <f>VLOOKUP(A23,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A23,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A23,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A23,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2364675925925931E-2</v>
+      </c>
+      <c r="O23">
+        <v>44</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="R23">
+        <f>COUNTA(lapchart!A:A)-2-O23</f>
+        <v>17</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A23,INDIRECT("lapchart!B"&amp;O23+2&amp;":U" &amp; O23+2),0)),"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <f>MATCH(A24,lapchart!$B$2:$U$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A24,finalstanding!B:B,0))</f>
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <f>COUNTIF(pitstop!A:A, A24)</f>
+        <v>2</v>
+      </c>
+      <c r="E24" cm="1">
+        <f t="array" ref="E24">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A24,ROW(pitstop!A:A),""),COLUMNS($E$1:E23))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A24,ROW(pitstop!A:A),""),COLUMNS($E$1:F23))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A24,ROW(pitstop!A:A),""),COLUMNS($E$1:E23)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A24,ROW(pitstop!A:A),""),COLUMNS($E$1:F23))),F24)</f>
+        <v>5</v>
+      </c>
+      <c r="H24" cm="1">
+        <f t="array" ref="H24">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A24,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>18</v>
+      </c>
+      <c r="I24" cm="1">
+        <f t="array" ref="I24">IFERROR(IF(D24=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H24,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A24=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H24),"")</f>
+        <v>38</v>
+      </c>
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">IFERROR(IF(D24=1,0,IF(D24=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H24-I24,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A24=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H24-I24)),"")</f>
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <f>VLOOKUP(A24,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A24,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A24,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A24,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.3335520833333329E-2</v>
+      </c>
+      <c r="O24">
+        <v>44</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="R24">
+        <f>COUNTA(lapchart!A:A)-2-O24</f>
+        <v>17</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A24,INDIRECT("lapchart!B"&amp;O24+2&amp;":U" &amp; O24+2),0)),"")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f>MATCH(A25,lapchart!$B$2:$U$2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A25,finalstanding!B:B,0))</f>
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <f>COUNTIF(pitstop!A:A, A25)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" cm="1">
+        <f t="array" ref="E25">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A25,ROW(pitstop!A:A),""),COLUMNS($E$1:E24))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A25,ROW(pitstop!A:A),""),COLUMNS($E$1:F24))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A25,ROW(pitstop!A:A),""),COLUMNS($E$1:E24)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A25,ROW(pitstop!A:A),""),COLUMNS($E$1:F24))),F25)</f>
+        <v>3</v>
+      </c>
+      <c r="H25" cm="1">
+        <f t="array" ref="H25">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A25,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>20</v>
+      </c>
+      <c r="I25" cm="1">
+        <f t="array" ref="I25">IFERROR(IF(D25=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H25,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A25=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H25),"")</f>
+        <v>41</v>
+      </c>
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">IFERROR(IF(D25=1,0,IF(D25=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H25-I25,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A25=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H25-I25)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N25" s="9">
+        <f>VLOOKUP(A25,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A25,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A25,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A25,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2469097222222218E-2</v>
+      </c>
+      <c r="O25">
+        <v>44</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <f>COUNTA(lapchart!A:A)-2-O25</f>
+        <v>17</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A25,INDIRECT("lapchart!B"&amp;O25+2&amp;":U" &amp; O25+2),0)),"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f>MATCH(A26,lapchart!$B$2:$U$2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A26,finalstanding!B:B,0))</f>
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <f>COUNTIF(pitstop!A:A, A26)</f>
+        <v>2</v>
+      </c>
+      <c r="E26" cm="1">
+        <f t="array" ref="E26">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A26,ROW(pitstop!A:A),""),COLUMNS($E$1:E25))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A26,ROW(pitstop!A:A),""),COLUMNS($E$1:F25))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A26,ROW(pitstop!A:A),""),COLUMNS($E$1:E25)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A26,ROW(pitstop!A:A),""),COLUMNS($E$1:F25))),F26)</f>
+        <v>5</v>
+      </c>
+      <c r="H26" cm="1">
+        <f t="array" ref="H26">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A26,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>12</v>
+      </c>
+      <c r="I26" cm="1">
+        <f t="array" ref="I26">IFERROR(IF(D26=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H26,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A26=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H26),"")</f>
+        <v>24</v>
+      </c>
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">IFERROR(IF(D26=1,0,IF(D26=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H26-I26,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A26=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H26-I26)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <f>VLOOKUP(A26,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A26,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A26,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A26,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2775983796296304E-2</v>
+      </c>
+      <c r="O26">
+        <v>44</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <f>COUNTA(lapchart!A:A)-2-O26</f>
+        <v>17</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A26,INDIRECT("lapchart!B"&amp;O26+2&amp;":U" &amp; O26+2),0)),"")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <f>MATCH(A27,lapchart!$B$2:$U$2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A27,finalstanding!B:B,0))</f>
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <f>COUNTIF(pitstop!A:A, A27)</f>
+        <v>2</v>
+      </c>
+      <c r="E27" cm="1">
+        <f t="array" ref="E27">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A27,ROW(pitstop!A:A),""),COLUMNS($E$1:E26))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A27,ROW(pitstop!A:A),""),COLUMNS($E$1:F26))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A27,ROW(pitstop!A:A),""),COLUMNS($E$1:E26)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A27,ROW(pitstop!A:A),""),COLUMNS($E$1:F26))),F27)</f>
+        <v>4</v>
+      </c>
+      <c r="H27" cm="1">
+        <f t="array" ref="H27">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A27,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I27" cm="1">
+        <f t="array" ref="I27">IFERROR(IF(D27=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H27,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A27=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H27),"")</f>
+        <v>35</v>
+      </c>
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">IFERROR(IF(D27=1,0,IF(D27=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H27-I27,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A27=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H27-I27)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N27" s="9">
+        <f>VLOOKUP(A27,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A27,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A27,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A27,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2527604166666671E-2</v>
+      </c>
+      <c r="O27">
+        <v>44</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <f>COUNTA(lapchart!A:A)-2-O27</f>
+        <v>17</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A27,INDIRECT("lapchart!B"&amp;O27+2&amp;":U" &amp; O27+2),0)),"")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <f>MATCH(A28,lapchart!$B$2:$U$2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A28,finalstanding!B:B,0))</f>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <f>COUNTIF(pitstop!A:A, A28)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" cm="1">
+        <f t="array" ref="E28">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A28,ROW(pitstop!A:A),""),COLUMNS($E$1:E27))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A28,ROW(pitstop!A:A),""),COLUMNS($E$1:F27))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A28,ROW(pitstop!A:A),""),COLUMNS($E$1:E27)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A28,ROW(pitstop!A:A),""),COLUMNS($E$1:F27))),F28)</f>
+        <v>3</v>
+      </c>
+      <c r="H28" cm="1">
+        <f t="array" ref="H28">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A28,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>19</v>
+      </c>
+      <c r="I28" cm="1">
+        <f t="array" ref="I28">IFERROR(IF(D28=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H28,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A28=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H28),"")</f>
+        <v>42</v>
+      </c>
+      <c r="J28" cm="1">
+        <f t="array" ref="J28">IFERROR(IF(D28=1,0,IF(D28=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H28-I28,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A28=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H28-I28)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="N28" s="9">
+        <f>VLOOKUP(A28,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A28,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A28,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A28,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2378333333333331E-2</v>
+      </c>
+      <c r="O28">
+        <v>44</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="R28">
+        <f>COUNTA(lapchart!A:A)-2-O28</f>
+        <v>17</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A28,INDIRECT("lapchart!B"&amp;O28+2&amp;":U" &amp; O28+2),0)),"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <f>MATCH(A29,lapchart!$B$2:$U$2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A29,finalstanding!B:B,0))</f>
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f>COUNTIF(pitstop!A:A, A29)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" cm="1">
+        <f t="array" ref="E29">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A29,ROW(pitstop!A:A),""),COLUMNS($E$1:E28))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A29,ROW(pitstop!A:A),""),COLUMNS($E$1:F28))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A29,ROW(pitstop!A:A),""),COLUMNS($E$1:E28)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A29,ROW(pitstop!A:A),""),COLUMNS($E$1:F28))),F29)</f>
+        <v>3</v>
+      </c>
+      <c r="H29" cm="1">
+        <f t="array" ref="H29">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A29,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>26</v>
+      </c>
+      <c r="I29" cm="1">
+        <f t="array" ref="I29">IFERROR(IF(D29=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H29,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A29=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H29),"")</f>
+        <v>35</v>
+      </c>
+      <c r="J29" cm="1">
+        <f t="array" ref="J29">IFERROR(IF(D29=1,0,IF(D29=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H29-I29,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A29=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H29-I29)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="N29" s="9">
+        <f>VLOOKUP(A29,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A29,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A29,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A29,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2387442129629632E-2</v>
+      </c>
+      <c r="O29">
+        <v>44</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="R29">
+        <f>COUNTA(lapchart!A:A)-2-O29</f>
+        <v>17</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A29,INDIRECT("lapchart!B"&amp;O29+2&amp;":U" &amp; O29+2),0)),"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <f>MATCH(A30,lapchart!$B$2:$U$2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A30,finalstanding!B:B,0))</f>
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <f>COUNTIF(pitstop!A:A, A30)</f>
+        <v>2</v>
+      </c>
+      <c r="E30" cm="1">
+        <f t="array" ref="E30">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A30,ROW(pitstop!A:A),""),COLUMNS($E$1:E29))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A30,ROW(pitstop!A:A),""),COLUMNS($E$1:F29))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A30,ROW(pitstop!A:A),""),COLUMNS($E$1:E29)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A30,ROW(pitstop!A:A),""),COLUMNS($E$1:F29))),F30)</f>
+        <v>4</v>
+      </c>
+      <c r="H30" cm="1">
+        <f t="array" ref="H30">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A30,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I30" cm="1">
+        <f t="array" ref="I30">IFERROR(IF(D30=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H30,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A30=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H30),"")</f>
+        <v>34</v>
+      </c>
+      <c r="J30" cm="1">
+        <f t="array" ref="J30">IFERROR(IF(D30=1,0,IF(D30=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H30-I30,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A30=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H30-I30)),"")</f>
+        <v>26</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <f>VLOOKUP(A30,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A30,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A30,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A30,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.275047453703703E-2</v>
+      </c>
+      <c r="O30">
+        <v>44</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="R30">
+        <f>COUNTA(lapchart!A:A)-2-O30</f>
+        <v>17</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A30,INDIRECT("lapchart!B"&amp;O30+2&amp;":U" &amp; O30+2),0)),"")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>77</v>
+      </c>
+      <c r="B31">
+        <f>MATCH(A31,lapchart!$B$2:$U$2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A31,finalstanding!B:B,0))</f>
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <f>COUNTIF(pitstop!A:A, A31)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" cm="1">
+        <f t="array" ref="E31">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A31,ROW(pitstop!A:A),""),COLUMNS($E$1:E30))),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A31,ROW(pitstop!A:A),""),COLUMNS($E$1:F30))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A31,ROW(pitstop!A:A),""),COLUMNS($E$1:E30)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A31,ROW(pitstop!A:A),""),COLUMNS($E$1:F30))),F31)</f>
+        <v>3</v>
+      </c>
+      <c r="H31" cm="1">
+        <f t="array" ref="H31">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A31,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>22</v>
+      </c>
+      <c r="I31" cm="1">
+        <f t="array" ref="I31">IFERROR(IF(D31=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H31,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A31=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H31),"")</f>
+        <v>39</v>
+      </c>
+      <c r="J31" cm="1">
+        <f t="array" ref="J31">IFERROR(IF(D31=1,0,IF(D31=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H31-I31,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A31=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H31-I31)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N31" s="9">
+        <f>VLOOKUP(A31,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A31,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A31,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A31,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2404930555555547E-2</v>
+      </c>
+      <c r="O31">
+        <v>44</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="R31">
+        <f>COUNTA(lapchart!A:A)-2-O31</f>
+        <v>17</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A31,INDIRECT("lapchart!B"&amp;O31+2&amp;":U" &amp; O31+2),0)),"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>88</v>
+      </c>
+      <c r="B32">
+        <f>MATCH(A32,lapchart!$B$2:$U$2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A32,finalstanding!B:B,0))</f>
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <f>COUNTIF(pitstop!A:A, A32)</f>
+        <v>2</v>
+      </c>
+      <c r="E32" cm="1">
+        <f t="array" ref="E32">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A32,ROW(pitstop!A:A),""),COLUMNS($E$1:E31))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A32,ROW(pitstop!A:A),""),COLUMNS($E$1:F31))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A32,ROW(pitstop!A:A),""),COLUMNS($E$1:E31)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A32,ROW(pitstop!A:A),""),COLUMNS($E$1:F31))),F32)</f>
+        <v>4</v>
+      </c>
+      <c r="H32" cm="1">
+        <f t="array" ref="H32">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A32,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>21</v>
+      </c>
+      <c r="I32" cm="1">
+        <f t="array" ref="I32">IFERROR(IF(D32=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H32,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A32=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H32),"")</f>
+        <v>23</v>
+      </c>
+      <c r="J32" cm="1">
+        <f t="array" ref="J32">IFERROR(IF(D32=1,0,IF(D32=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H32-I32,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A32=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H32-I32)),"")</f>
+        <v>17</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
+        <f>VLOOKUP(A32,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A32,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A32,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A32,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2878368055555554E-2</v>
+      </c>
+      <c r="O32">
+        <v>44</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="R32">
+        <f>COUNTA(lapchart!A:A)-2-O32</f>
+        <v>17</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A32,INDIRECT("lapchart!B"&amp;O32+2&amp;":U" &amp; O32+2),0)),"")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>99</v>
+      </c>
+      <c r="B33">
+        <f>MATCH(A33,lapchart!$B$2:$U$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A33,finalstanding!B:B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <f>COUNTIF(pitstop!A:A, A33)</f>
+        <v>2</v>
+      </c>
+      <c r="E33" cm="1">
+        <f t="array" ref="E33">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A33,ROW(pitstop!A:A),""),COLUMNS($E$1:E32))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A33,ROW(pitstop!A:A),""),COLUMNS($E$1:F32))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A33,ROW(pitstop!A:A),""),COLUMNS($E$1:E32)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A33,ROW(pitstop!A:A),""),COLUMNS($E$1:F32))),F33)</f>
+        <v>5</v>
+      </c>
+      <c r="H33" cm="1">
+        <f t="array" ref="H33">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A33,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>34</v>
+      </c>
+      <c r="I33" cm="1">
+        <f t="array" ref="I33">IFERROR(IF(D33=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H33,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A33=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H33),"")</f>
+        <v>2</v>
+      </c>
+      <c r="J33" cm="1">
+        <f t="array" ref="J33">IFERROR(IF(D33=1,0,IF(D33=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H33-I33,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A33=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H33-I33)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="9">
+        <f>VLOOKUP(A33,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A33,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A33,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A33,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>8.2656504629629632E-2</v>
+      </c>
+      <c r="O33">
+        <v>44</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <f>COUNTA(lapchart!A:A)-2-O33</f>
+        <v>17</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A33,INDIRECT("lapchart!B"&amp;O33+2&amp;":U" &amp; O33+2),0)),"")</f>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597A9A5D-3ADC-4A33-9FAB-ECFFAFB51D50}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8.2334108796296296E-2</v>
+      </c>
+      <c r="J2">
+        <v>156.226</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.2129861111111111E-3</v>
+      </c>
+      <c r="L2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8.2364675925925931E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.641</v>
+      </c>
+      <c r="I3">
+        <v>2.641</v>
+      </c>
+      <c r="J3">
+        <v>156.16800000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.2120717592592593E-3</v>
+      </c>
+      <c r="L3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8.2378333333333331E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.8210000000000002</v>
+      </c>
+      <c r="I4">
+        <v>1.18</v>
+      </c>
+      <c r="J4">
+        <v>156.142</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.217314814814815E-3</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8.2387442129629632E-2</v>
+      </c>
+      <c r="H5">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="I5">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="J5">
+        <v>156.125</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.2142824074074074E-3</v>
+      </c>
+      <c r="L5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8.2404930555555547E-2</v>
+      </c>
+      <c r="H6">
+        <v>6.1189999999999998</v>
+      </c>
+      <c r="I6">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="J6">
+        <v>156.09100000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.1983101851851853E-3</v>
+      </c>
+      <c r="L6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8.2469097222222218E-2</v>
+      </c>
+      <c r="H7">
+        <v>11.663</v>
+      </c>
+      <c r="I7">
+        <v>5.5439999999999996</v>
+      </c>
+      <c r="J7">
+        <v>155.97</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.218287037037037E-3</v>
+      </c>
+      <c r="L7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.2505046296296292E-2</v>
+      </c>
+      <c r="H8">
+        <v>14.769</v>
+      </c>
+      <c r="I8">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="J8">
+        <v>155.90199999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.2235648148148147E-3</v>
+      </c>
+      <c r="L8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.2514050925925925E-2</v>
+      </c>
+      <c r="H9">
+        <v>15.547000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="J9">
+        <v>155.88499999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.2241782407407407E-3</v>
+      </c>
+      <c r="L9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8.2527604166666671E-2</v>
+      </c>
+      <c r="H10">
+        <v>16.718</v>
+      </c>
+      <c r="I10">
+        <v>1.171</v>
+      </c>
+      <c r="J10">
+        <v>155.85900000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.2241319444444446E-3</v>
+      </c>
+      <c r="L10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.2656504629629632E-2</v>
+      </c>
+      <c r="H11">
+        <v>27.855</v>
+      </c>
+      <c r="I11">
+        <v>11.137</v>
+      </c>
+      <c r="J11">
+        <v>155.61600000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.2225694444444443E-3</v>
+      </c>
+      <c r="L11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8.2744247685185179E-2</v>
+      </c>
+      <c r="H12">
+        <v>35.436</v>
+      </c>
+      <c r="I12">
+        <v>7.5810000000000004</v>
+      </c>
+      <c r="J12">
+        <v>155.45099999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.2300231481481483E-3</v>
+      </c>
+      <c r="L12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8.275047453703703E-2</v>
+      </c>
+      <c r="H13">
+        <v>35.973999999999997</v>
+      </c>
+      <c r="I13">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="J13">
+        <v>155.44</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.2264930555555555E-3</v>
+      </c>
+      <c r="L13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8.2755624999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>36.418999999999997</v>
+      </c>
+      <c r="I14">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="J14">
+        <v>155.43</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.214074074074074E-3</v>
+      </c>
+      <c r="L14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8.2769988425925922E-2</v>
+      </c>
+      <c r="H15">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="I15">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="J15">
+        <v>155.40299999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.2258680555555556E-3</v>
+      </c>
+      <c r="L15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16">
+        <v>61</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8.2775983796296304E-2</v>
+      </c>
+      <c r="H16">
+        <v>38.177999999999997</v>
+      </c>
+      <c r="I16">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="J16">
+        <v>155.392</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.2079976851851854E-3</v>
+      </c>
+      <c r="L16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17">
+        <v>61</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8.2878368055555554E-2</v>
+      </c>
+      <c r="H17">
+        <v>47.024000000000001</v>
+      </c>
+      <c r="I17">
+        <v>8.8460000000000001</v>
+      </c>
+      <c r="J17">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.2360300925925926E-3</v>
+      </c>
+      <c r="L17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8.3335520833333329E-2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>39.497999999999998</v>
+      </c>
+      <c r="J18">
+        <v>154.34800000000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.1840393518518519E-3</v>
+      </c>
+      <c r="L18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19">
+        <v>49</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6.6917951388888883E-2</v>
+      </c>
+      <c r="J19">
+        <v>154.386</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.2391435185185185E-3</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <v>42</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.5926261574074071E-2</v>
+      </c>
+      <c r="J20">
+        <v>158.32499999999999</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.2347569444444444E-3</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21">
+        <v>34</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4.3704884259259259E-2</v>
+      </c>
+      <c r="J21">
+        <v>163.983</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.2532986111111111E-3</v>
+      </c>
+      <c r="L21">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F0C22B-C035-46D0-BF18-D4B9460A3AFE}">
   <dimension ref="A1:U63"/>
@@ -22043,7 +27014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4918EA7-046A-44C2-B928-2A91D6CED5CD}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
